--- a/Critérios do trabalho.xlsx
+++ b/Critérios do trabalho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAULO\Documents\Banco de dados\2 semestre\Projeto aplicado I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAULO\Documents\Banco de dados\2 semestre\Projeto aplicado I\Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DBAFD7-1462-4A60-9188-99A06D0D9232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB7983-7EE8-498C-B205-60B740DBF8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD80284D-A95C-4052-A70E-1754188AC5D9}"/>
+    <workbookView xWindow="4800" yWindow="600" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{CD80284D-A95C-4052-A70E-1754188AC5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Avaliações</t>
   </si>
@@ -130,13 +130,19 @@
   </si>
   <si>
     <t>Critérios de avaliação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOU UMA </t>
+  </si>
+  <si>
+    <t>Alteração</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +175,13 @@
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,8 +256,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -257,18 +279,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB68E5CC-E155-4880-A131-8B8338FEACD7}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
@@ -628,120 +642,120 @@
       <c r="E1" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="50" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -757,14 +771,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1256A42D-DBDB-4D19-8826-DD1D974CE3BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="47.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>